--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1448,7 +1448,7 @@
     <t>Composition.section:incident.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-incident)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-injury-intent|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-transport-vehicular-flag|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-mode-of-transport|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident)
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Composition — EMS Submission</t>
+    <t>RS Composition — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Composition — EMS Submission</t>
+    <t>Road Safety Composition — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Composition — EMS Submission</t>
+    <t>RS Composition — EMS Submission</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1396,7 +1396,7 @@
     <t>Composition.section:workflow.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-date-received|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-time-enroute|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-time-on-scene|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-time-departed|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-time-hospital-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-time-station-arrival|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-runreport-comments|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-vehicle-used)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-timeline-datetime|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-runreport-comments)
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
     <t>Composition.section:vitals.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-breath-sounds|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rhythm|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-quality|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cyanosis)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-respiratory-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-pulse-rate|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-blood-pressure|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-body-temperature|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-gcs|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-observation-cyanosis)
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-composition-ems.xlsx
+++ b/StructureDefinition-rs-composition-ems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
